--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145678.6945201305</v>
+        <v>25168665.23320597</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145678.6945201305</v>
+        <v>25168665.23320597</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7321.397739128113</v>
+        <v>805281.2841511908</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7321.397739128113</v>
+        <v>805281.2841511908</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188072214.117096</v>
+        <v>47501963.24574114</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8633.912819081155</v>
+        <v>977051.7183172322</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17245.20212444496</v>
+        <v>1949601.35740471</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25856.49142980876</v>
+        <v>2922150.996492191</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34639.89013149094</v>
+        <v>3897453.48067116</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43416.53161525146</v>
+        <v>4871411.278483713</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52193.17309901198</v>
+        <v>5845369.076296267</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>60969.8145827725</v>
+        <v>6819326.874108817</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69746.45606653301</v>
+        <v>7793284.671921368</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78511.22899032656</v>
+        <v>8734531.636393653</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86987.02363158049</v>
+        <v>9703875.454874717</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95480.29539829602</v>
+        <v>10675350.41708523</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>103797.0077333327</v>
+        <v>11644155.7920565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112124.7432469463</v>
+        <v>12615154.77956455</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121008.4821594903</v>
+        <v>13532629.68338832</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130340.0672080291</v>
+        <v>14401065.14059193</v>
       </c>
     </row>
   </sheetData>
